--- a/biology/Zoologie/Bothrops_alternatus/Bothrops_alternatus.xlsx
+++ b/biology/Zoologie/Bothrops_alternatus/Bothrops_alternatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops alternatus est une espèce de serpents de la famille des Viperidae[1]. Il est appelé Yarará grande, Urutu ou Víbora de la cruz.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops alternatus est une espèce de serpents de la famille des Viperidae. Il est appelé Yarará grande, Urutu ou Víbora de la cruz.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Argentine dans les provinces de Buenos Aires, de La Pampa, de Santa Fe, d'Entre Ríos, de Corrientes, de Misiones, du Chaco, de Formosa, de Córdoba, de Santiago del Estero, de Catamarca, de Salta, de Jujuy, de Tucumán, de Mendoza, de San Juan, de La Rioja et de San Luis ;
 en Uruguay ;
 au Paraguay ;
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent venimeux vivipare pouvant occasionner des envenimations graves. Il peut atteindre 170 cm de longueur.
 </t>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Deuxième partie, p. 781-1536 (texte intégral).</t>
         </is>
